--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
-    <sheet name="testcase_testcasetype" sheetId="1" r:id="rId1"/>
+    <sheet name="testcase" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">testcase_testcasetype!$A$1:$K$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">testcase!$A$1:$K$299</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4039,7 +4039,7 @@
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -345,10 +345,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">PIXIT_SECC_DC_CableCheckOngoing == unknown
-</t>
-  </si>
-  <si>
     <t>TC_SECC_DC_VTB_CableCheck_002</t>
   </si>
   <si>
@@ -409,10 +405,6 @@
 additional mandatory parameters. Furthermore the repetition of the CableCheck
 message sequence will be checked until the cable check of the SUT has finished
 or 'V2G_EVCC_CableCheck_Timer' has expired.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIXIT_SECC_DC_CableCheckOngoing == ongoing
 </t>
   </si>
   <si>
@@ -2112,10 +2104,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">PIXIT_SECC_CMN_CertificateHandling = _none,PIXIT_CMN_CMN_PkiName = PKI_1
-</t>
-  </si>
-  <si>
     <t>TC_SECC_CMN_VTB_PaymentDetails_002</t>
   </si>
   <si>
@@ -2198,10 +2186,6 @@
     <t xml:space="preserve">Test System executes GoodCase procedure and sends a PaymentDetailsReq message
 with the current SessionID, valid EMAID, invalid contract certificate chain
 (Expired issuer Sub CA 2) and all additional mandatory parameters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIXIT_SECC_CMN_CertificateHandling = _none, PIXIT_CMN_CMN_PkiName = PKI_1
 </t>
   </si>
   <si>
@@ -3674,6 +3658,22 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXIT_SECC_DC_CableCheckOngoing = unknown
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXIT_SECC_DC_CableCheckOngoing = ongoing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXIT_SECC_CMN_CertificateHandling = none_,PIXIT_CMN_CMN_PkiName = PKI_1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXIT_SECC_CMN_CertificateHandling = none_, PIXIT_CMN_CMN_PkiName = PKI_1
+</t>
   </si>
 </sst>
 </file>
@@ -4038,8 +4038,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -4154,7 +4154,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -4187,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -4220,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -4253,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -4286,7 +4286,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -4319,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -4352,7 +4352,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -4385,7 +4385,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -4418,7 +4418,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -4451,7 +4451,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -4484,7 +4484,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -4517,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -4550,7 +4550,7 @@
         <v>33</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -4583,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -4616,7 +4616,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -4649,7 +4649,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -4682,7 +4682,7 @@
         <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -4715,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K20" s="4"/>
     </row>
@@ -4748,7 +4748,7 @@
         <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -4781,7 +4781,7 @@
         <v>33</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -4814,7 +4814,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -4838,7 +4838,7 @@
         <v>73</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>74</v>
+        <v>731</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
@@ -4847,7 +4847,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -4856,22 +4856,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>74</v>
+        <v>731</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
@@ -4880,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -4889,19 +4889,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>13</v>
@@ -4913,7 +4913,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -4922,19 +4922,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>13</v>
@@ -4946,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -4955,19 +4955,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -4979,7 +4979,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -4988,22 +4988,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>732</v>
       </c>
       <c r="H29" s="2">
         <v>3</v>
@@ -5012,7 +5012,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K29" s="4"/>
     </row>
@@ -5021,22 +5021,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>88</v>
+        <v>732</v>
       </c>
       <c r="H30" s="2">
         <v>3</v>
@@ -5045,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -5054,19 +5054,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>13</v>
@@ -5078,7 +5078,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -5087,19 +5087,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>32</v>
@@ -5111,7 +5111,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K32" s="4"/>
     </row>
@@ -5120,19 +5120,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>32</v>
@@ -5144,7 +5144,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K33" s="4"/>
     </row>
@@ -5153,19 +5153,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>32</v>
@@ -5177,7 +5177,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -5186,7 +5186,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -5198,7 +5198,7 @@
         <v>48</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>32</v>
@@ -5210,7 +5210,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K35" s="4"/>
     </row>
@@ -5219,19 +5219,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>32</v>
@@ -5243,7 +5243,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K36" s="4"/>
     </row>
@@ -5252,19 +5252,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>32</v>
@@ -5276,7 +5276,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K37" s="4"/>
     </row>
@@ -5285,19 +5285,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>32</v>
@@ -5309,7 +5309,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K38" s="4"/>
     </row>
@@ -5318,19 +5318,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>32</v>
@@ -5342,7 +5342,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K39" s="4"/>
     </row>
@@ -5351,19 +5351,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>32</v>
@@ -5375,7 +5375,7 @@
         <v>33</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K40" s="4"/>
     </row>
@@ -5384,19 +5384,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>32</v>
@@ -5408,7 +5408,7 @@
         <v>33</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K41" s="4"/>
     </row>
@@ -5417,19 +5417,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>32</v>
@@ -5441,7 +5441,7 @@
         <v>33</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -5450,7 +5450,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
@@ -5462,7 +5462,7 @@
         <v>48</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>32</v>
@@ -5474,7 +5474,7 @@
         <v>33</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K43" s="4"/>
     </row>
@@ -5483,19 +5483,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>32</v>
@@ -5507,7 +5507,7 @@
         <v>33</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K44" s="4"/>
     </row>
@@ -5516,19 +5516,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>32</v>
@@ -5540,7 +5540,7 @@
         <v>33</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -5549,19 +5549,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>32</v>
@@ -5573,7 +5573,7 @@
         <v>33</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K46" s="4"/>
     </row>
@@ -5582,19 +5582,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>32</v>
@@ -5606,7 +5606,7 @@
         <v>33</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K47" s="4"/>
     </row>
@@ -5615,19 +5615,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>32</v>
@@ -5639,7 +5639,7 @@
         <v>33</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K48" s="4"/>
     </row>
@@ -5648,19 +5648,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>32</v>
@@ -5672,7 +5672,7 @@
         <v>33</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K49" s="4"/>
     </row>
@@ -5681,19 +5681,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>32</v>
@@ -5705,7 +5705,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K50" s="4"/>
     </row>
@@ -5714,19 +5714,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>32</v>
@@ -5738,7 +5738,7 @@
         <v>33</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K51" s="4"/>
     </row>
@@ -5747,19 +5747,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>32</v>
@@ -5771,7 +5771,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K52" s="4"/>
     </row>
@@ -5780,19 +5780,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>32</v>
@@ -5804,7 +5804,7 @@
         <v>33</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K53" s="4"/>
     </row>
@@ -5813,19 +5813,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>32</v>
@@ -5837,7 +5837,7 @@
         <v>33</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K54" s="4"/>
     </row>
@@ -5846,19 +5846,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>32</v>
@@ -5870,7 +5870,7 @@
         <v>33</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K55" s="4"/>
     </row>
@@ -5879,19 +5879,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>32</v>
@@ -5903,7 +5903,7 @@
         <v>33</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -5912,22 +5912,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H57" s="2">
         <v>6</v>
@@ -5936,7 +5936,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K57" s="4"/>
     </row>
@@ -5945,22 +5945,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="H58" s="2">
         <v>6</v>
@@ -5969,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -5978,19 +5978,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>13</v>
@@ -6002,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K59" s="4"/>
     </row>
@@ -6011,19 +6011,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>13</v>
@@ -6035,7 +6035,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K60" s="4"/>
     </row>
@@ -6044,19 +6044,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>13</v>
@@ -6068,7 +6068,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K61" s="4"/>
     </row>
@@ -6077,22 +6077,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H62" s="2">
         <v>6</v>
@@ -6101,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -6110,22 +6110,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H63" s="2">
         <v>6</v>
@@ -6134,7 +6134,7 @@
         <v>14</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K63" s="4"/>
     </row>
@@ -6143,22 +6143,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H64" s="2">
         <v>6</v>
@@ -6167,7 +6167,7 @@
         <v>14</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K64" s="4"/>
     </row>
@@ -6176,22 +6176,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H65" s="2">
         <v>6</v>
@@ -6200,7 +6200,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -6209,22 +6209,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H66" s="2">
         <v>6</v>
@@ -6233,7 +6233,7 @@
         <v>14</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K66" s="4"/>
     </row>
@@ -6242,22 +6242,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G67" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H67" s="2">
         <v>6</v>
@@ -6266,7 +6266,7 @@
         <v>14</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -6275,22 +6275,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="G68" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H68" s="2">
         <v>6</v>
@@ -6299,7 +6299,7 @@
         <v>14</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K68" s="4"/>
     </row>
@@ -6308,22 +6308,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H69" s="2">
         <v>6</v>
@@ -6332,7 +6332,7 @@
         <v>14</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K69" s="4"/>
     </row>
@@ -6341,22 +6341,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H70" s="2">
         <v>6</v>
@@ -6365,7 +6365,7 @@
         <v>14</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K70" s="4"/>
     </row>
@@ -6374,22 +6374,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H71" s="2">
         <v>6</v>
@@ -6398,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K71" s="4"/>
     </row>
@@ -6407,22 +6407,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H72" s="2">
         <v>6</v>
@@ -6431,7 +6431,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K72" s="4"/>
     </row>
@@ -6440,22 +6440,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H73" s="2">
         <v>6</v>
@@ -6464,7 +6464,7 @@
         <v>14</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K73" s="4"/>
     </row>
@@ -6473,22 +6473,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H74" s="2">
         <v>6</v>
@@ -6497,7 +6497,7 @@
         <v>14</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K74" s="4"/>
     </row>
@@ -6506,22 +6506,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G75" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H75" s="2">
         <v>6</v>
@@ -6530,7 +6530,7 @@
         <v>14</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K75" s="4"/>
     </row>
@@ -6539,22 +6539,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H76" s="2">
         <v>6</v>
@@ -6563,7 +6563,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K76" s="4"/>
     </row>
@@ -6572,22 +6572,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G77" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H77" s="2">
         <v>6</v>
@@ -6596,7 +6596,7 @@
         <v>14</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K77" s="4"/>
     </row>
@@ -6605,22 +6605,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G78" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H78" s="2">
         <v>6</v>
@@ -6629,7 +6629,7 @@
         <v>14</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K78" s="4"/>
     </row>
@@ -6638,22 +6638,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H79" s="2">
         <v>6</v>
@@ -6662,7 +6662,7 @@
         <v>14</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K79" s="4"/>
     </row>
@@ -6671,22 +6671,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H80" s="2">
         <v>6</v>
@@ -6695,7 +6695,7 @@
         <v>14</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K80" s="4"/>
     </row>
@@ -6704,22 +6704,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H81" s="2">
         <v>6</v>
@@ -6728,7 +6728,7 @@
         <v>14</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K81" s="4"/>
     </row>
@@ -6737,22 +6737,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H82" s="2">
         <v>6</v>
@@ -6761,7 +6761,7 @@
         <v>14</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K82" s="4"/>
     </row>
@@ -6770,22 +6770,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H83" s="2">
         <v>6</v>
@@ -6794,7 +6794,7 @@
         <v>14</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K83" s="4"/>
     </row>
@@ -6803,22 +6803,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H84" s="2">
         <v>6</v>
@@ -6827,7 +6827,7 @@
         <v>14</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K84" s="4"/>
     </row>
@@ -6836,22 +6836,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H85" s="2">
         <v>6</v>
@@ -6860,7 +6860,7 @@
         <v>14</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K85" s="4"/>
     </row>
@@ -6869,22 +6869,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H86" s="2">
         <v>6</v>
@@ -6893,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K86" s="4"/>
     </row>
@@ -6902,22 +6902,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H87" s="2">
         <v>6</v>
@@ -6926,7 +6926,7 @@
         <v>14</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K87" s="4"/>
     </row>
@@ -6935,22 +6935,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H88" s="2">
         <v>6</v>
@@ -6959,7 +6959,7 @@
         <v>14</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K88" s="4"/>
     </row>
@@ -6968,22 +6968,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H89" s="2">
         <v>6</v>
@@ -6992,7 +6992,7 @@
         <v>14</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K89" s="4"/>
     </row>
@@ -7001,22 +7001,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H90" s="2">
         <v>6</v>
@@ -7025,7 +7025,7 @@
         <v>14</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K90" s="4"/>
     </row>
@@ -7034,22 +7034,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H91" s="2">
         <v>6</v>
@@ -7058,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K91" s="4"/>
     </row>
@@ -7067,22 +7067,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H92" s="2">
         <v>6</v>
@@ -7091,7 +7091,7 @@
         <v>14</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K92" s="4"/>
     </row>
@@ -7100,22 +7100,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H93" s="2">
         <v>6</v>
@@ -7124,7 +7124,7 @@
         <v>14</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K93" s="4"/>
     </row>
@@ -7133,19 +7133,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>13</v>
@@ -7157,7 +7157,7 @@
         <v>14</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K94" s="4"/>
     </row>
@@ -7166,19 +7166,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>13</v>
@@ -7190,7 +7190,7 @@
         <v>14</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K95" s="4"/>
     </row>
@@ -7199,19 +7199,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
@@ -7223,7 +7223,7 @@
         <v>14</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K96" s="4"/>
     </row>
@@ -7232,22 +7232,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="H97" s="2">
         <v>6</v>
@@ -7256,7 +7256,7 @@
         <v>14</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K97" s="4"/>
     </row>
@@ -7265,22 +7265,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H98" s="2">
         <v>6</v>
@@ -7289,7 +7289,7 @@
         <v>14</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K98" s="4"/>
     </row>
@@ -7298,22 +7298,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H99" s="2">
         <v>6</v>
@@ -7322,7 +7322,7 @@
         <v>14</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K99" s="4"/>
     </row>
@@ -7331,22 +7331,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H100" s="2">
         <v>6</v>
@@ -7355,7 +7355,7 @@
         <v>14</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K100" s="4"/>
     </row>
@@ -7364,22 +7364,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H101" s="2">
         <v>6</v>
@@ -7388,7 +7388,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K101" s="4"/>
     </row>
@@ -7397,22 +7397,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H102" s="2">
         <v>6</v>
@@ -7421,7 +7421,7 @@
         <v>14</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K102" s="4"/>
     </row>
@@ -7430,22 +7430,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H103" s="2">
         <v>6</v>
@@ -7454,7 +7454,7 @@
         <v>14</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K103" s="4"/>
     </row>
@@ -7463,22 +7463,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H104" s="2">
         <v>6</v>
@@ -7487,7 +7487,7 @@
         <v>14</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K104" s="4"/>
     </row>
@@ -7496,22 +7496,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H105" s="2">
         <v>6</v>
@@ -7520,7 +7520,7 @@
         <v>14</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K105" s="4"/>
     </row>
@@ -7529,22 +7529,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H106" s="2">
         <v>6</v>
@@ -7553,7 +7553,7 @@
         <v>14</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K106" s="4"/>
     </row>
@@ -7562,22 +7562,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H107" s="2">
         <v>6</v>
@@ -7586,7 +7586,7 @@
         <v>14</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K107" s="4"/>
     </row>
@@ -7595,22 +7595,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H108" s="2">
         <v>6</v>
@@ -7619,7 +7619,7 @@
         <v>14</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K108" s="4"/>
     </row>
@@ -7628,22 +7628,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H109" s="2">
         <v>6</v>
@@ -7652,7 +7652,7 @@
         <v>14</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K109" s="4"/>
     </row>
@@ -7661,22 +7661,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H110" s="2">
         <v>6</v>
@@ -7685,7 +7685,7 @@
         <v>14</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K110" s="4"/>
     </row>
@@ -7694,22 +7694,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H111" s="2">
         <v>6</v>
@@ -7718,7 +7718,7 @@
         <v>14</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K111" s="4"/>
     </row>
@@ -7727,22 +7727,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H112" s="2">
         <v>6</v>
@@ -7751,7 +7751,7 @@
         <v>14</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K112" s="4"/>
     </row>
@@ -7760,22 +7760,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H113" s="2">
         <v>6</v>
@@ -7784,7 +7784,7 @@
         <v>14</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K113" s="4"/>
     </row>
@@ -7793,22 +7793,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H114" s="2">
         <v>6</v>
@@ -7817,7 +7817,7 @@
         <v>14</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K114" s="4"/>
     </row>
@@ -7826,22 +7826,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H115" s="2">
         <v>6</v>
@@ -7850,7 +7850,7 @@
         <v>14</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K115" s="4"/>
     </row>
@@ -7859,22 +7859,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H116" s="2">
         <v>6</v>
@@ -7883,7 +7883,7 @@
         <v>14</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K116" s="4"/>
     </row>
@@ -7892,22 +7892,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H117" s="2">
         <v>6</v>
@@ -7916,7 +7916,7 @@
         <v>14</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K117" s="4"/>
     </row>
@@ -7925,22 +7925,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H118" s="2">
         <v>6</v>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K118" s="4"/>
     </row>
@@ -7958,22 +7958,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H119" s="2">
         <v>6</v>
@@ -7982,7 +7982,7 @@
         <v>14</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K119" s="4"/>
     </row>
@@ -7991,22 +7991,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H120" s="2">
         <v>6</v>
@@ -8015,7 +8015,7 @@
         <v>14</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K120" s="4"/>
     </row>
@@ -8024,22 +8024,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H121" s="2">
         <v>6</v>
@@ -8048,7 +8048,7 @@
         <v>14</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K121" s="4"/>
     </row>
@@ -8057,22 +8057,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H122" s="2">
         <v>6</v>
@@ -8081,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K122" s="4"/>
     </row>
@@ -8090,22 +8090,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H123" s="2">
         <v>6</v>
@@ -8114,7 +8114,7 @@
         <v>14</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K123" s="4"/>
     </row>
@@ -8123,22 +8123,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H124" s="2">
         <v>6</v>
@@ -8147,7 +8147,7 @@
         <v>14</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K124" s="4"/>
     </row>
@@ -8156,22 +8156,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H125" s="2">
         <v>6</v>
@@ -8180,7 +8180,7 @@
         <v>14</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K125" s="4"/>
     </row>
@@ -8189,22 +8189,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H126" s="2">
         <v>6</v>
@@ -8213,7 +8213,7 @@
         <v>14</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K126" s="4"/>
     </row>
@@ -8222,22 +8222,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H127" s="2">
         <v>6</v>
@@ -8246,7 +8246,7 @@
         <v>14</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K127" s="4"/>
     </row>
@@ -8255,22 +8255,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H128" s="2">
         <v>6</v>
@@ -8279,7 +8279,7 @@
         <v>14</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K128" s="4"/>
     </row>
@@ -8288,19 +8288,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>13</v>
@@ -8312,7 +8312,7 @@
         <v>14</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K129" s="4"/>
     </row>
@@ -8321,19 +8321,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>13</v>
@@ -8345,7 +8345,7 @@
         <v>14</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K130" s="4"/>
     </row>
@@ -8354,22 +8354,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="H131" s="2">
         <v>7</v>
@@ -8378,7 +8378,7 @@
         <v>14</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K131" s="4"/>
     </row>
@@ -8387,22 +8387,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="H132" s="2">
         <v>7</v>
@@ -8411,7 +8411,7 @@
         <v>33</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K132" s="4"/>
     </row>
@@ -8420,19 +8420,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>13</v>
@@ -8444,7 +8444,7 @@
         <v>14</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K133" s="4"/>
     </row>
@@ -8453,19 +8453,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>13</v>
@@ -8477,7 +8477,7 @@
         <v>14</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K134" s="4"/>
     </row>
@@ -8486,19 +8486,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>13</v>
@@ -8510,7 +8510,7 @@
         <v>14</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K135" s="4"/>
     </row>
@@ -8519,22 +8519,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H136" s="2">
         <v>7</v>
@@ -8543,7 +8543,7 @@
         <v>14</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K136" s="4"/>
     </row>
@@ -8552,22 +8552,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H137" s="2">
         <v>7</v>
@@ -8576,7 +8576,7 @@
         <v>33</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K137" s="4"/>
     </row>
@@ -8585,22 +8585,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H138" s="2">
         <v>7</v>
@@ -8609,7 +8609,7 @@
         <v>14</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K138" s="4"/>
     </row>
@@ -8618,22 +8618,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H139" s="2">
         <v>7</v>
@@ -8642,7 +8642,7 @@
         <v>33</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K139" s="4"/>
     </row>
@@ -8651,22 +8651,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H140" s="2">
         <v>8</v>
@@ -8675,7 +8675,7 @@
         <v>14</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K140" s="4"/>
     </row>
@@ -8684,22 +8684,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H141" s="2">
         <v>8</v>
@@ -8708,7 +8708,7 @@
         <v>33</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K141" s="4"/>
     </row>
@@ -8717,19 +8717,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>13</v>
@@ -8741,7 +8741,7 @@
         <v>14</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K142" s="4"/>
     </row>
@@ -8750,19 +8750,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>13</v>
@@ -8774,7 +8774,7 @@
         <v>14</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K143" s="4"/>
     </row>
@@ -8783,19 +8783,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>13</v>
@@ -8807,7 +8807,7 @@
         <v>14</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K144" s="4"/>
     </row>
@@ -8816,22 +8816,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H145" s="2">
         <v>8</v>
@@ -8840,7 +8840,7 @@
         <v>14</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K145" s="4"/>
     </row>
@@ -8849,22 +8849,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H146" s="2">
         <v>8</v>
@@ -8873,7 +8873,7 @@
         <v>33</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K146" s="4"/>
     </row>
@@ -8882,22 +8882,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H147" s="2">
         <v>8</v>
@@ -8906,7 +8906,7 @@
         <v>14</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K147" s="4"/>
     </row>
@@ -8915,22 +8915,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H148" s="2">
         <v>8</v>
@@ -8939,7 +8939,7 @@
         <v>33</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K148" s="4"/>
     </row>
@@ -8948,22 +8948,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="H149" s="2">
         <v>9</v>
@@ -8972,7 +8972,7 @@
         <v>33</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K149" s="4"/>
     </row>
@@ -8981,22 +8981,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H150" s="2">
         <v>9</v>
@@ -9005,7 +9005,7 @@
         <v>33</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K150" s="4"/>
     </row>
@@ -9014,22 +9014,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H151" s="2">
         <v>9</v>
@@ -9038,7 +9038,7 @@
         <v>33</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K151" s="4"/>
     </row>
@@ -9047,22 +9047,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H152" s="2">
         <v>9</v>
@@ -9071,7 +9071,7 @@
         <v>33</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K152" s="4"/>
     </row>
@@ -9080,22 +9080,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H153" s="2">
         <v>9</v>
@@ -9104,7 +9104,7 @@
         <v>33</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K153" s="4"/>
     </row>
@@ -9113,22 +9113,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H154" s="2">
         <v>9</v>
@@ -9137,7 +9137,7 @@
         <v>33</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K154" s="4"/>
     </row>
@@ -9146,22 +9146,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H155" s="2">
         <v>9</v>
@@ -9170,7 +9170,7 @@
         <v>33</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K155" s="4"/>
     </row>
@@ -9179,22 +9179,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="H156" s="2">
         <v>9</v>
@@ -9203,7 +9203,7 @@
         <v>33</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K156" s="4"/>
     </row>
@@ -9212,22 +9212,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H157" s="2">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>33</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K157" s="4"/>
     </row>
@@ -9245,22 +9245,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H158" s="2">
         <v>9</v>
@@ -9269,7 +9269,7 @@
         <v>33</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K158" s="4"/>
     </row>
@@ -9278,22 +9278,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H159" s="2">
         <v>9</v>
@@ -9302,7 +9302,7 @@
         <v>33</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K159" s="4"/>
     </row>
@@ -9311,22 +9311,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H160" s="2">
         <v>9</v>
@@ -9335,7 +9335,7 @@
         <v>33</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K160" s="4"/>
     </row>
@@ -9344,22 +9344,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H161" s="2">
         <v>9</v>
@@ -9368,7 +9368,7 @@
         <v>33</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K161" s="4"/>
     </row>
@@ -9377,22 +9377,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H162" s="2">
         <v>9</v>
@@ -9401,7 +9401,7 @@
         <v>33</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K162" s="4"/>
     </row>
@@ -9410,22 +9410,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H163" s="2">
         <v>10</v>
@@ -9434,7 +9434,7 @@
         <v>33</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K163" s="4"/>
     </row>
@@ -9443,16 +9443,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>31</v>
@@ -9467,7 +9467,7 @@
         <v>33</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K164" s="4"/>
     </row>
@@ -9476,16 +9476,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>31</v>
@@ -9500,7 +9500,7 @@
         <v>33</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K165" s="4"/>
     </row>
@@ -9509,13 +9509,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>36</v>
@@ -9524,7 +9524,7 @@
         <v>31</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H166" s="2">
         <v>10</v>
@@ -9533,7 +9533,7 @@
         <v>33</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K166" s="4"/>
     </row>
@@ -9542,22 +9542,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H167" s="2">
         <v>10</v>
@@ -9566,7 +9566,7 @@
         <v>33</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K167" s="4"/>
     </row>
@@ -9575,7 +9575,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
@@ -9590,7 +9590,7 @@
         <v>31</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H168" s="2">
         <v>10</v>
@@ -9599,7 +9599,7 @@
         <v>33</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K168" s="4"/>
     </row>
@@ -9608,22 +9608,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H169" s="2">
         <v>10</v>
@@ -9632,7 +9632,7 @@
         <v>33</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K169" s="4"/>
     </row>
@@ -9641,22 +9641,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H170" s="2">
         <v>10</v>
@@ -9665,7 +9665,7 @@
         <v>33</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K170" s="4"/>
     </row>
@@ -9674,22 +9674,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="H171" s="2">
         <v>10</v>
@@ -9698,7 +9698,7 @@
         <v>33</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K171" s="4"/>
     </row>
@@ -9707,22 +9707,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>431</v>
+        <v>734</v>
       </c>
       <c r="H172" s="2">
         <v>10</v>
@@ -9731,7 +9731,7 @@
         <v>33</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K172" s="4"/>
     </row>
@@ -9740,22 +9740,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H173" s="2">
         <v>11</v>
@@ -9764,7 +9764,7 @@
         <v>14</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K173" s="4"/>
     </row>
@@ -9773,22 +9773,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H174" s="2">
         <v>11</v>
@@ -9797,7 +9797,7 @@
         <v>33</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K174" s="4"/>
     </row>
@@ -9806,22 +9806,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H175" s="2">
         <v>11</v>
@@ -9830,7 +9830,7 @@
         <v>33</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K175" s="4"/>
     </row>
@@ -9839,13 +9839,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>36</v>
@@ -9863,7 +9863,7 @@
         <v>14</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K176" s="4"/>
     </row>
@@ -9872,16 +9872,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>13</v>
@@ -9896,7 +9896,7 @@
         <v>14</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K177" s="4"/>
     </row>
@@ -9905,16 +9905,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>13</v>
@@ -9929,7 +9929,7 @@
         <v>14</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K178" s="4"/>
     </row>
@@ -9938,16 +9938,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>13</v>
@@ -9962,7 +9962,7 @@
         <v>14</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K179" s="4"/>
     </row>
@@ -9971,13 +9971,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>48</v>
@@ -9995,7 +9995,7 @@
         <v>14</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K180" s="4"/>
     </row>
@@ -10004,22 +10004,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H181" s="2">
         <v>11</v>
@@ -10028,7 +10028,7 @@
         <v>14</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K181" s="4"/>
     </row>
@@ -10037,22 +10037,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E182" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="G182" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H182" s="2">
         <v>11</v>
@@ -10061,7 +10061,7 @@
         <v>33</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K182" s="4"/>
     </row>
@@ -10070,19 +10070,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>13</v>
@@ -10094,7 +10094,7 @@
         <v>14</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K183" s="4"/>
     </row>
@@ -10103,19 +10103,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E184" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>13</v>
@@ -10127,7 +10127,7 @@
         <v>14</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K184" s="4"/>
     </row>
@@ -10136,22 +10136,22 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H185" s="2">
         <v>12</v>
@@ -10160,7 +10160,7 @@
         <v>14</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K185" s="4"/>
     </row>
@@ -10169,22 +10169,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H186" s="2">
         <v>12</v>
@@ -10193,7 +10193,7 @@
         <v>14</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K186" s="4"/>
     </row>
@@ -10202,19 +10202,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>13</v>
@@ -10226,7 +10226,7 @@
         <v>14</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K187" s="4"/>
     </row>
@@ -10235,19 +10235,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>13</v>
@@ -10259,7 +10259,7 @@
         <v>14</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K188" s="4"/>
     </row>
@@ -10268,19 +10268,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>13</v>
@@ -10292,7 +10292,7 @@
         <v>14</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K189" s="4"/>
     </row>
@@ -10301,19 +10301,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>13</v>
@@ -10325,7 +10325,7 @@
         <v>14</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K190" s="4"/>
     </row>
@@ -10334,19 +10334,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>13</v>
@@ -10358,7 +10358,7 @@
         <v>14</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K191" s="4"/>
     </row>
@@ -10367,19 +10367,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>13</v>
@@ -10391,7 +10391,7 @@
         <v>14</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K192" s="4"/>
     </row>
@@ -10400,19 +10400,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>13</v>
@@ -10424,7 +10424,7 @@
         <v>14</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K193" s="4"/>
     </row>
@@ -10433,19 +10433,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>13</v>
@@ -10457,7 +10457,7 @@
         <v>14</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K194" s="4"/>
     </row>
@@ -10466,19 +10466,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>13</v>
@@ -10490,7 +10490,7 @@
         <v>14</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K195" s="4"/>
     </row>
@@ -10499,19 +10499,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>13</v>
@@ -10523,7 +10523,7 @@
         <v>14</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K196" s="4"/>
     </row>
@@ -10532,19 +10532,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>13</v>
@@ -10556,7 +10556,7 @@
         <v>14</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K197" s="4"/>
     </row>
@@ -10565,19 +10565,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>13</v>
@@ -10589,7 +10589,7 @@
         <v>14</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K198" s="4"/>
     </row>
@@ -10598,19 +10598,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>13</v>
@@ -10622,7 +10622,7 @@
         <v>14</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K199" s="4"/>
     </row>
@@ -10631,19 +10631,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>13</v>
@@ -10655,7 +10655,7 @@
         <v>14</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K200" s="4"/>
     </row>
@@ -10664,19 +10664,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>13</v>
@@ -10688,7 +10688,7 @@
         <v>14</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K201" s="4"/>
     </row>
@@ -10697,19 +10697,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>13</v>
@@ -10721,7 +10721,7 @@
         <v>14</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K202" s="4"/>
     </row>
@@ -10730,19 +10730,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>13</v>
@@ -10754,7 +10754,7 @@
         <v>14</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K203" s="4"/>
     </row>
@@ -10763,19 +10763,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>13</v>
@@ -10787,7 +10787,7 @@
         <v>14</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K204" s="4"/>
     </row>
@@ -10796,22 +10796,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H205" s="2">
         <v>12</v>
@@ -10820,7 +10820,7 @@
         <v>14</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K205" s="4"/>
     </row>
@@ -10829,19 +10829,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>13</v>
@@ -10853,7 +10853,7 @@
         <v>14</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K206" s="4"/>
     </row>
@@ -10862,22 +10862,22 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H207" s="2">
         <v>12</v>
@@ -10886,7 +10886,7 @@
         <v>14</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K207" s="4"/>
     </row>
@@ -10895,22 +10895,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H208" s="2">
         <v>12</v>
@@ -10919,7 +10919,7 @@
         <v>14</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K208" s="4"/>
     </row>
@@ -10928,19 +10928,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>13</v>
@@ -10952,7 +10952,7 @@
         <v>14</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K209" s="4"/>
     </row>
@@ -10961,19 +10961,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>13</v>
@@ -10985,7 +10985,7 @@
         <v>14</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K210" s="4"/>
     </row>
@@ -10994,19 +10994,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>13</v>
@@ -11018,7 +11018,7 @@
         <v>14</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K211" s="4"/>
     </row>
@@ -11027,19 +11027,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>13</v>
@@ -11051,7 +11051,7 @@
         <v>14</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K212" s="4"/>
     </row>
@@ -11060,19 +11060,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>13</v>
@@ -11084,7 +11084,7 @@
         <v>14</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K213" s="4"/>
     </row>
@@ -11093,19 +11093,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>13</v>
@@ -11117,7 +11117,7 @@
         <v>14</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K214" s="4"/>
     </row>
@@ -11126,19 +11126,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>13</v>
@@ -11150,7 +11150,7 @@
         <v>14</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K215" s="4"/>
     </row>
@@ -11159,19 +11159,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>13</v>
@@ -11183,7 +11183,7 @@
         <v>14</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K216" s="4"/>
     </row>
@@ -11192,19 +11192,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>13</v>
@@ -11216,7 +11216,7 @@
         <v>14</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K217" s="4"/>
     </row>
@@ -11225,19 +11225,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>13</v>
@@ -11249,7 +11249,7 @@
         <v>14</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K218" s="4"/>
     </row>
@@ -11258,19 +11258,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>13</v>
@@ -11282,7 +11282,7 @@
         <v>14</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K219" s="4"/>
     </row>
@@ -11291,19 +11291,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>13</v>
@@ -11315,7 +11315,7 @@
         <v>14</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K220" s="4"/>
     </row>
@@ -11324,19 +11324,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>13</v>
@@ -11348,7 +11348,7 @@
         <v>14</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K221" s="4"/>
     </row>
@@ -11357,22 +11357,22 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H222" s="2">
         <v>14</v>
@@ -11381,7 +11381,7 @@
         <v>33</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K222" s="4"/>
     </row>
@@ -11390,22 +11390,22 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D223" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H223" s="2">
         <v>14</v>
@@ -11414,7 +11414,7 @@
         <v>33</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K223" s="4"/>
     </row>
@@ -11423,13 +11423,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>36</v>
@@ -11438,7 +11438,7 @@
         <v>26</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H224" s="2">
         <v>14</v>
@@ -11447,7 +11447,7 @@
         <v>33</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K224" s="4"/>
     </row>
@@ -11456,13 +11456,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>36</v>
@@ -11471,7 +11471,7 @@
         <v>31</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H225" s="2">
         <v>14</v>
@@ -11480,7 +11480,7 @@
         <v>33</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K225" s="4"/>
     </row>
@@ -11489,22 +11489,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H226" s="2">
         <v>14</v>
@@ -11513,7 +11513,7 @@
         <v>33</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K226" s="4"/>
     </row>
@@ -11522,22 +11522,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H227" s="2">
         <v>14</v>
@@ -11546,7 +11546,7 @@
         <v>33</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K227" s="4"/>
     </row>
@@ -11555,22 +11555,22 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H228" s="2">
         <v>14</v>
@@ -11579,7 +11579,7 @@
         <v>33</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K228" s="4"/>
     </row>
@@ -11588,22 +11588,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H229" s="2">
         <v>14</v>
@@ -11612,7 +11612,7 @@
         <v>33</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K229" s="4"/>
     </row>
@@ -11621,13 +11621,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>48</v>
@@ -11636,7 +11636,7 @@
         <v>26</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H230" s="2">
         <v>14</v>
@@ -11645,7 +11645,7 @@
         <v>33</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K230" s="4"/>
     </row>
@@ -11654,13 +11654,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>48</v>
@@ -11669,7 +11669,7 @@
         <v>31</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H231" s="2">
         <v>14</v>
@@ -11678,7 +11678,7 @@
         <v>33</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K231" s="4"/>
     </row>
@@ -11687,22 +11687,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H232" s="2">
         <v>14</v>
@@ -11711,7 +11711,7 @@
         <v>33</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K232" s="4"/>
     </row>
@@ -11720,22 +11720,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H233" s="2">
         <v>14</v>
@@ -11744,7 +11744,7 @@
         <v>33</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K233" s="4"/>
     </row>
@@ -11753,16 +11753,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>13</v>
@@ -11777,7 +11777,7 @@
         <v>14</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K234" s="4"/>
     </row>
@@ -11786,16 +11786,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>13</v>
@@ -11810,7 +11810,7 @@
         <v>14</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K235" s="4"/>
     </row>
@@ -11819,16 +11819,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>13</v>
@@ -11843,7 +11843,7 @@
         <v>14</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K236" s="4"/>
     </row>
@@ -11852,13 +11852,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>48</v>
@@ -11876,7 +11876,7 @@
         <v>14</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K237" s="4"/>
     </row>
@@ -11885,19 +11885,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>13</v>
@@ -11909,7 +11909,7 @@
         <v>14</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K238" s="4"/>
     </row>
@@ -11918,19 +11918,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>13</v>
@@ -11942,7 +11942,7 @@
         <v>14</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K239" s="4"/>
     </row>
@@ -11951,19 +11951,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>13</v>
@@ -11975,7 +11975,7 @@
         <v>14</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K240" s="4"/>
     </row>
@@ -11984,19 +11984,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>13</v>
@@ -12008,7 +12008,7 @@
         <v>14</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K241" s="4"/>
     </row>
@@ -12017,16 +12017,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>13</v>
@@ -12041,7 +12041,7 @@
         <v>14</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K242" s="4"/>
     </row>
@@ -12050,13 +12050,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>36</v>
@@ -12074,7 +12074,7 @@
         <v>14</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K243" s="4"/>
     </row>
@@ -12083,13 +12083,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>48</v>
@@ -12107,7 +12107,7 @@
         <v>14</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K244" s="4"/>
     </row>
@@ -12116,13 +12116,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>48</v>
@@ -12140,7 +12140,7 @@
         <v>14</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K245" s="4"/>
     </row>
@@ -12149,19 +12149,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>13</v>
@@ -12173,7 +12173,7 @@
         <v>14</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K246" s="4"/>
     </row>
@@ -12182,19 +12182,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>13</v>
@@ -12206,7 +12206,7 @@
         <v>14</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K247" s="4"/>
     </row>
@@ -12215,19 +12215,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>13</v>
@@ -12239,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K248" s="4"/>
     </row>
@@ -12248,19 +12248,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>13</v>
@@ -12272,7 +12272,7 @@
         <v>14</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K249" s="4"/>
     </row>
@@ -12281,19 +12281,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>13</v>
@@ -12305,7 +12305,7 @@
         <v>14</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K250" s="4"/>
     </row>
@@ -12314,19 +12314,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>13</v>
@@ -12338,7 +12338,7 @@
         <v>14</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K251" s="4"/>
     </row>
@@ -12347,19 +12347,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>13</v>
@@ -12371,7 +12371,7 @@
         <v>14</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K252" s="4"/>
     </row>
@@ -12380,19 +12380,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>13</v>
@@ -12404,7 +12404,7 @@
         <v>14</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K253" s="4"/>
     </row>
@@ -12413,19 +12413,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>13</v>
@@ -12437,7 +12437,7 @@
         <v>14</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K254" s="4"/>
     </row>
@@ -12446,19 +12446,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>13</v>
@@ -12470,7 +12470,7 @@
         <v>14</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K255" s="4"/>
     </row>
@@ -12479,19 +12479,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>13</v>
@@ -12503,7 +12503,7 @@
         <v>14</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K256" s="4"/>
     </row>
@@ -12512,19 +12512,19 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>13</v>
@@ -12536,7 +12536,7 @@
         <v>14</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K257" s="4"/>
     </row>
@@ -12545,19 +12545,19 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>13</v>
@@ -12569,7 +12569,7 @@
         <v>14</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K258" s="4"/>
     </row>
@@ -12578,19 +12578,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>13</v>
@@ -12602,7 +12602,7 @@
         <v>14</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K259" s="4"/>
     </row>
@@ -12611,19 +12611,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>13</v>
@@ -12635,7 +12635,7 @@
         <v>14</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K260" s="4"/>
     </row>
@@ -12644,19 +12644,19 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>13</v>
@@ -12668,7 +12668,7 @@
         <v>14</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K261" s="4"/>
     </row>
@@ -12677,19 +12677,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>13</v>
@@ -12701,7 +12701,7 @@
         <v>14</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K262" s="4"/>
     </row>
@@ -12710,19 +12710,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>13</v>
@@ -12734,7 +12734,7 @@
         <v>14</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K263" s="4"/>
     </row>
@@ -12743,19 +12743,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>13</v>
@@ -12767,7 +12767,7 @@
         <v>14</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K264" s="4"/>
     </row>
@@ -12776,19 +12776,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E265" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>13</v>
@@ -12800,7 +12800,7 @@
         <v>14</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K265" s="4"/>
     </row>
@@ -12809,19 +12809,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>13</v>
@@ -12833,7 +12833,7 @@
         <v>14</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K266" s="4"/>
     </row>
@@ -12842,19 +12842,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>13</v>
@@ -12866,7 +12866,7 @@
         <v>14</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K267" s="4"/>
     </row>
@@ -12875,19 +12875,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>13</v>
@@ -12899,7 +12899,7 @@
         <v>14</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K268" s="4"/>
     </row>
@@ -12908,19 +12908,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>13</v>
@@ -12932,7 +12932,7 @@
         <v>14</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K269" s="4"/>
     </row>
@@ -12941,19 +12941,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>13</v>
@@ -12965,7 +12965,7 @@
         <v>14</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K270" s="4"/>
     </row>
@@ -12974,19 +12974,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>13</v>
@@ -12998,7 +12998,7 @@
         <v>14</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K271" s="4"/>
     </row>
@@ -13007,22 +13007,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H272" s="2">
         <v>18</v>
@@ -13031,7 +13031,7 @@
         <v>33</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K272" s="4"/>
     </row>
@@ -13040,16 +13040,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>13</v>
@@ -13064,7 +13064,7 @@
         <v>14</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K273" s="4"/>
     </row>
@@ -13073,13 +13073,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>48</v>
@@ -13097,7 +13097,7 @@
         <v>14</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K274" s="4"/>
     </row>
@@ -13106,22 +13106,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H275" s="2">
         <v>18</v>
@@ -13130,7 +13130,7 @@
         <v>14</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K275" s="4"/>
     </row>
@@ -13139,16 +13139,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>13</v>
@@ -13163,7 +13163,7 @@
         <v>14</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K276" s="4"/>
     </row>
@@ -13172,22 +13172,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H277" s="2">
         <v>18</v>
@@ -13196,7 +13196,7 @@
         <v>14</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K277" s="4"/>
     </row>
@@ -13205,19 +13205,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>13</v>
@@ -13229,7 +13229,7 @@
         <v>14</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K278" s="4"/>
     </row>
@@ -13238,19 +13238,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>13</v>
@@ -13262,7 +13262,7 @@
         <v>14</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K279" s="4"/>
     </row>
@@ -13271,19 +13271,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>13</v>
@@ -13295,7 +13295,7 @@
         <v>14</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K280" s="4"/>
     </row>
@@ -13304,19 +13304,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>13</v>
@@ -13328,7 +13328,7 @@
         <v>14</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K281" s="4"/>
     </row>
@@ -13337,19 +13337,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>13</v>
@@ -13361,7 +13361,7 @@
         <v>14</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K282" s="4"/>
     </row>
@@ -13370,22 +13370,22 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H283" s="2">
         <v>20</v>
@@ -13394,7 +13394,7 @@
         <v>14</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K283" s="4"/>
     </row>
@@ -13403,22 +13403,22 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H284" s="2">
         <v>20</v>
@@ -13427,7 +13427,7 @@
         <v>33</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K284" s="4"/>
     </row>
@@ -13436,19 +13436,19 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>13</v>
@@ -13460,7 +13460,7 @@
         <v>33</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K285" s="4"/>
     </row>
@@ -13469,22 +13469,22 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H286" s="2">
         <v>20</v>
@@ -13493,7 +13493,7 @@
         <v>14</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K286" s="4"/>
     </row>
@@ -13502,22 +13502,22 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H287" s="2">
         <v>20</v>
@@ -13526,7 +13526,7 @@
         <v>33</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K287" s="4"/>
     </row>
@@ -13535,19 +13535,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>13</v>
@@ -13559,7 +13559,7 @@
         <v>33</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K288" s="4"/>
     </row>
@@ -13568,22 +13568,22 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H289" s="2">
         <v>20</v>
@@ -13592,7 +13592,7 @@
         <v>14</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K289" s="4"/>
     </row>
@@ -13601,19 +13601,19 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>13</v>
@@ -13625,7 +13625,7 @@
         <v>14</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K290" s="4"/>
     </row>
@@ -13634,19 +13634,19 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>13</v>
@@ -13658,7 +13658,7 @@
         <v>14</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K291" s="4"/>
     </row>
@@ -13667,19 +13667,19 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>13</v>
@@ -13691,7 +13691,7 @@
         <v>14</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K292" s="4"/>
     </row>
@@ -13700,19 +13700,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>13</v>
@@ -13724,7 +13724,7 @@
         <v>14</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K293" s="4"/>
     </row>
@@ -13733,19 +13733,19 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>13</v>
@@ -13757,7 +13757,7 @@
         <v>14</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K294" s="4"/>
     </row>
@@ -13766,19 +13766,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>13</v>
@@ -13790,7 +13790,7 @@
         <v>14</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K295" s="4"/>
     </row>
@@ -13799,19 +13799,19 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>13</v>
@@ -13823,7 +13823,7 @@
         <v>14</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K296" s="4"/>
     </row>
@@ -13832,19 +13832,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>13</v>
@@ -13856,7 +13856,7 @@
         <v>14</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K297" s="4"/>
     </row>
@@ -13865,19 +13865,19 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>13</v>
@@ -13889,7 +13889,7 @@
         <v>14</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K298" s="4"/>
     </row>
@@ -13898,19 +13898,19 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>13</v>
@@ -13922,7 +13922,7 @@
         <v>14</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K299" s="4"/>
     </row>
